--- a/backend/area_calculation_report.xlsx
+++ b/backend/area_calculation_report.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>European Union</t>
+          <t>china-area-calculation.pdf</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.43</v>
+        <v>263.35</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-12-19 00:46:28</t>
+          <t>2025-12-19 01:07:36</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,96 +554,104 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>N.G.L.</t>
+          <t>标高 1</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>600</v>
+        <v>4000</v>
       </c>
       <c r="D2" t="n">
-        <v>20.26</v>
+        <v>16.51</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>4.17</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Geometric Balcony/Outside (8.34m2 * 0.5)</t>
+          <t>Geometric Balcony/Outside (130.49m2 * 0.5)</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>24.43</v>
+        <v>81.76000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P.L.</t>
+          <t>标高 2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>600</v>
+        <v>4000</v>
       </c>
       <c r="C3" t="n">
-        <v>900</v>
+        <v>4000</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13.57</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>66.72</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Geometric Balcony/Outside (133.43m2 * 0.5)</t>
+        </is>
+      </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>80.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SIIL L.</t>
+          <t>标高 3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="C4" t="n">
-        <v>1200</v>
+        <v>4000</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>39.45</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>61.86</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Geometric Balcony/Outside (123.72m2 * 0.5)</t>
+        </is>
+      </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>101.31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LIN.L.</t>
+          <t>标高 4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2700</v>
+        <v>12000</v>
       </c>
       <c r="C5" t="n">
-        <v>900</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -656,58 +664,6 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>R.BTM.</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3600</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>R.TOP</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4600</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/backend/area_calculation_report.xlsx
+++ b/backend/area_calculation_report.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,39 +454,69 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>china-area-calculation.pdf</t>
+          <t>European Union</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total Area (sq.m)</t>
+          <t>Total Calculated Area (sq.m)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>263.35</v>
+        <v>492.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Story Count</t>
+          <t>Total Full Area (100%)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>68.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Total Half Area (50%)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>847.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Total Excluded Area</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Story Count</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-12-19 01:07:36</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-12-19 11:02:05</t>
         </is>
       </c>
     </row>
@@ -501,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +577,21 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Full Area (100%)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Half Area (50%)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Excluded Area</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Calculated Area (sq.m)</t>
         </is>
       </c>
@@ -554,104 +599,123 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>标高 1</t>
+          <t>地面标高</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="C2" t="n">
-        <v>4000</v>
+        <v>600</v>
       </c>
       <c r="D2" t="n">
-        <v>16.51</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>65.23999999999999</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Geometric Balcony/Outside (130.49m2 * 0.5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>81.76000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>标高 2</t>
+          <t>1F</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="D3" t="n">
-        <v>13.57</v>
+        <v>68.3</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>66.72</v>
+        <v>423.74</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Geometric Balcony/Outside (133.43m2 * 0.5)</t>
+          <t>Geometric Balcony/Outside (847.47m2 * 0.5); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0)</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>80.28</v>
+        <v>68.3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>847.47</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>492.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>标高 3</t>
+          <t>2F</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="C4" t="n">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="D4" t="n">
-        <v>39.45</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>61.86</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Geometric Balcony/Outside (123.72m2 * 0.5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>101.31</v>
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>标高 4</t>
+          <t>3F</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12000</v>
+        <v>8400</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>3900</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -664,6 +728,85 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>屋面标高</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12300</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>屋顶标高</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>13500</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/backend/area_calculation_report.xlsx
+++ b/backend/area_calculation_report.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>European Union</t>
+          <t>China</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>492.04</v>
+        <v>1363.93</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.3</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>847.47</v>
+        <v>2695.95</v>
       </c>
     </row>
     <row r="6">
@@ -516,7 +516,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-12-19 11:02:05</t>
+          <t>2025-12-19 11:43:03</t>
         </is>
       </c>
     </row>
@@ -644,30 +644,30 @@
         <v>4500</v>
       </c>
       <c r="D3" t="n">
-        <v>68.3</v>
+        <v>12.59</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>423.74</v>
+        <v>448.84</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Geometric Balcony/Outside (847.47m2 * 0.5); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0); Adjusted BASEMENT (0.0m2 * 1.0)</t>
+          <t>Geometric Balcony/Outside (897.67m2 * 0.5)</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>68.3</v>
+        <v>12.59</v>
       </c>
       <c r="I3" t="n">
-        <v>847.47</v>
+        <v>897.67</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>492.04</v>
+        <v>461.43</v>
       </c>
     </row>
     <row r="4">
@@ -683,26 +683,30 @@
         <v>3900</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>449.57</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Geometric Balcony/Outside (899.14m2 * 0.5)</t>
+        </is>
+      </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>899.14</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>451.25</v>
       </c>
     </row>
     <row r="5">
@@ -718,26 +722,30 @@
         <v>3900</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>449.57</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Geometric Balcony/Outside (899.14m2 * 0.5)</t>
+        </is>
+      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>899.14</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>451.25</v>
       </c>
     </row>
     <row r="6">

--- a/backend/area_calculation_report.xlsx
+++ b/backend/area_calculation_report.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>European Measurement Code</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1363.93</v>
+        <v>1413.03</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.95</v>
+        <v>78.87</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2695.95</v>
+        <v>2668.31</v>
       </c>
     </row>
     <row r="6">
@@ -516,7 +516,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-12-19 11:43:03</t>
+          <t>2025-12-19 12:32:05</t>
         </is>
       </c>
     </row>
@@ -603,16 +603,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-600</v>
+        <v>-0.6</v>
       </c>
       <c r="C2" t="n">
-        <v>600</v>
+        <v>0.6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,13 +622,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4500</v>
+        <v>4.5</v>
       </c>
       <c r="D3" t="n">
         <v>12.59</v>
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4500</v>
+        <v>4.5</v>
       </c>
       <c r="C4" t="n">
-        <v>3900</v>
+        <v>3.9</v>
       </c>
       <c r="D4" t="n">
         <v>1.68</v>
@@ -716,36 +716,36 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8400</v>
+        <v>8.4</v>
       </c>
       <c r="C5" t="n">
-        <v>3900</v>
+        <v>3.9</v>
       </c>
       <c r="D5" t="n">
-        <v>1.68</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>449.57</v>
+        <v>419.1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Geometric Balcony/Outside (899.14m2 * 0.5)</t>
+          <t>Geometric Balcony/Outside (838.19m2 * 0.5)</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.68</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>899.14</v>
+        <v>838.1900000000001</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>451.25</v>
+        <v>483.69</v>
       </c>
     </row>
     <row r="6">
@@ -755,16 +755,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12300</v>
+        <v>12.3</v>
       </c>
       <c r="C6" t="n">
-        <v>1200</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13500</v>
+        <v>13.5</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>

--- a/backend/area_calculation_report.xlsx
+++ b/backend/area_calculation_report.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>European Measurement Code</t>
+          <t>European Union</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-12-19 12:32:05</t>
+          <t>2025-12-20 18:06:47</t>
         </is>
       </c>
     </row>

--- a/backend/area_calculation_report.xlsx
+++ b/backend/area_calculation_report.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Detailed Breakdown" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Story Breakdown" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Detailed Components" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>European Union</t>
+          <t>China</t>
         </is>
       </c>
     </row>
@@ -465,7 +466,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1413.03</v>
+        <v>1396.37</v>
       </c>
     </row>
     <row r="4">
@@ -485,7 +486,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2668.31</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="6">
@@ -495,7 +496,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>33.31</v>
       </c>
     </row>
     <row r="7">
@@ -516,7 +517,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-12-20 18:06:47</t>
+          <t>2025-12-21 15:42:01</t>
         </is>
       </c>
     </row>
@@ -612,7 +613,7 @@
         <v>32.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -622,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>32.5</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>16.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -764,7 +765,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -774,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -816,6 +817,291 @@
       </c>
       <c r="K7" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Story</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Element / Category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Raw Area (sq.m)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Coefficient</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Effective Area (sq.m)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>地面标高</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>General Floor Area (Enclosed)</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Remaining area after specific element adjustments</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>General Floor Area (Enclosed)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Remaining area after specific element adjustments</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1F</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Geometric Balcony/Outside</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>897.67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>448.84</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Derived from geometry difference (Slab - Wall Outline)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>General Floor Area (Enclosed)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Remaining area after specific element adjustments</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2F</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Geometric Balcony/Outside</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>899.14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>449.57</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Derived from geometry difference (Slab - Wall Outline)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>General Floor Area (Enclosed)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Remaining area after specific element adjustments</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3F</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Geometric Balcony/Outside</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>838.1900000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>419.1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Derived from geometry difference (Slab - Wall Outline)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>屋面标高</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>General Floor Area (Enclosed)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Remaining area after specific element adjustments</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>屋顶标高</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>General Floor Area (Enclosed)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Remaining area after specific element adjustments</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/backend/area_calculation_report.xlsx
+++ b/backend/area_calculation_report.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1396.37</v>
+        <v>3605.41</v>
       </c>
     </row>
     <row r="4">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78.87</v>
+        <v>3605.41</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33.31</v>
+        <v>900.8200000000001</v>
       </c>
     </row>
     <row r="7">
@@ -517,7 +517,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-12-21 15:42:01</t>
+          <t>2025-12-21 19:44:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>See 'Detailed Components' sheet for full breakdown</t>
         </is>
       </c>
     </row>
@@ -610,7 +622,7 @@
         <v>0.6</v>
       </c>
       <c r="D2" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -626,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -645,30 +657,26 @@
         <v>4.5</v>
       </c>
       <c r="D3" t="n">
-        <v>12.59</v>
+        <v>902.23</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>448.84</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Geometric Balcony/Outside (897.67m2 * 0.5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>12.59</v>
+        <v>902.23</v>
       </c>
       <c r="I3" t="n">
-        <v>897.67</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>461.43</v>
+        <v>902.23</v>
       </c>
     </row>
     <row r="4">
@@ -684,30 +692,26 @@
         <v>3.9</v>
       </c>
       <c r="D4" t="n">
-        <v>1.68</v>
+        <v>900.98</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>449.57</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Geometric Balcony/Outside (899.14m2 * 0.5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>1.68</v>
+        <v>900.98</v>
       </c>
       <c r="I4" t="n">
-        <v>899.14</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>451.25</v>
+        <v>900.98</v>
       </c>
     </row>
     <row r="5">
@@ -723,30 +727,26 @@
         <v>3.9</v>
       </c>
       <c r="D5" t="n">
-        <v>64.59999999999999</v>
+        <v>900.8200000000001</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>419.1</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Geometric Balcony/Outside (838.19m2 * 0.5)</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>64.59999999999999</v>
+        <v>900.8200000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>838.1900000000001</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>483.69</v>
+        <v>900.8200000000001</v>
       </c>
     </row>
     <row r="6">
@@ -762,7 +762,7 @@
         <v>1.199999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8100000000000001</v>
+        <v>900.8200000000001</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8100000000000001</v>
+        <v>900.8200000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>901.38</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -805,9 +805,13 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Adjusted BALCONY (0.0m2 * 0.5 [Base 1.0])</t>
+        </is>
+      </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>901.38</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -816,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>901.38</v>
       </c>
     </row>
   </sheetData>
@@ -830,7 +834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,7 +886,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -908,13 +912,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12.59</v>
+        <v>902.23</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>12.59</v>
+        <v>902.23</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -925,33 +929,33 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1F</t>
+          <t>2F</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Geometric Balcony/Outside</t>
+          <t>General Floor Area (Enclosed)</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>897.67</v>
+        <v>900.98</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>448.84</v>
+        <v>900.98</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Derived from geometry difference (Slab - Wall Outline)</t>
+          <t>Remaining area after specific element adjustments</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2F</t>
+          <t>3F</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -960,13 +964,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.68</v>
+        <v>900.8200000000001</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1.68</v>
+        <v>900.8200000000001</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -977,33 +981,33 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2F</t>
+          <t>屋面标高</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Geometric Balcony/Outside</t>
+          <t>General Floor Area (Enclosed)</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>899.14</v>
+        <v>900.8200000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>449.57</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Derived from geometry difference (Slab - Wall Outline)</t>
+          <t>Remaining area after specific element adjustments</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3F</t>
+          <t>屋顶标高</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1012,13 +1016,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>64.59999999999999</v>
+        <v>901.38</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>64.59999999999999</v>
+        <v>901.38</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1029,78 +1033,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3F</t>
+          <t>屋顶标高</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Geometric Balcony/Outside</t>
+          <t>BALCONY</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>838.1900000000001</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0.5</v>
       </c>
       <c r="E8" t="n">
-        <v>419.1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Derived from geometry difference (Slab - Wall Outline)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>屋面标高</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>General Floor Area (Enclosed)</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Remaining area after specific element adjustments</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>屋顶标高</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>General Floor Area (Enclosed)</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Remaining area after specific element adjustments</t>
+          <t>Semantic Balcony Adjustment</t>
         </is>
       </c>
     </row>

--- a/backend/area_calculation_report.xlsx
+++ b/backend/area_calculation_report.xlsx
@@ -455,7 +455,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>china-area-calculation.pdf</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-12-21 19:44:33</t>
+          <t>2025-12-22 12:25:11</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>地面标高</t>
+          <t>GL</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -647,7 +647,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1F</t>
+          <t>GF</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -665,7 +665,11 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Manual Adjustment EXTERIOR SLAB (0.0m2 * 0.0)</t>
+        </is>
+      </c>
       <c r="H3" t="n">
         <v>902.23</v>
       </c>
@@ -682,7 +686,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2F</t>
+          <t>1F</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -717,7 +721,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3F</t>
+          <t>2F</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -752,7 +756,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>屋面标高</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -787,7 +791,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>屋顶标高</t>
+          <t>RL</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -807,7 +811,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Adjusted BALCONY (0.0m2 * 0.5 [Base 1.0])</t>
+          <t>Manual Adjustment BALCONY (0.0m2 * 0.5)</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -834,7 +838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,7 +881,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>地面标高</t>
+          <t>GL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -903,7 +907,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1F</t>
+          <t>GF</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -929,33 +933,33 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2F</t>
+          <t>GF</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>General Floor Area (Enclosed)</t>
+          <t>EXTERIOR SLAB</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>900.98</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>900.98</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Remaining area after specific element adjustments</t>
+          <t>Manual Factor Override</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3F</t>
+          <t>1F</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -964,13 +968,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>900.8200000000001</v>
+        <v>900.98</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>900.8200000000001</v>
+        <v>900.98</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -981,7 +985,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>屋面标高</t>
+          <t>2F</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -993,10 +997,10 @@
         <v>900.8200000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>900.8200000000001</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -1007,7 +1011,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>屋顶标高</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1016,13 +1020,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>901.38</v>
+        <v>900.8200000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>901.38</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1033,26 +1037,52 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>屋顶标高</t>
+          <t>RL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>General Floor Area (Enclosed)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>901.38</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>901.38</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Remaining area after specific element adjustments</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RL</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>BALCONY</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.5</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Semantic Balcony Adjustment</t>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Manual Factor Override</t>
         </is>
       </c>
     </row>

--- a/backend/area_calculation_report.xlsx
+++ b/backend/area_calculation_report.xlsx
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2694.85</v>
+        <v>2681.51</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106.42</v>
+        <v>79.73999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>26.68</v>
       </c>
     </row>
     <row r="7">
@@ -517,7 +517,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-01-08 16:58:49</t>
+          <t>2026-01-08 19:17:54</t>
         </is>
       </c>
     </row>
@@ -663,24 +663,24 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>16.87</v>
+        <v>3.53</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Geometric Balcony/Outside (33.75m2 * 0.5); Adjusted BALCONY (0.0m2 * 0.5 [Base 1.0]); Adjusted BALCONY (0.0m2 * 0.5 [Base 1.0])</t>
+          <t>Geometric Balcony/Outside (7.07m2 * 0.5); Manual Adjustment EXTERIOR SLAB (OUTSIDE) (26.68000000000001m2 * 0.0)</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>870.01</v>
       </c>
       <c r="I3" t="n">
-        <v>33.75</v>
+        <v>7.07</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>26.68</v>
       </c>
       <c r="K3" t="n">
-        <v>886.88</v>
+        <v>873.54</v>
       </c>
     </row>
     <row r="4">
@@ -768,7 +768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,17 +872,17 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33.75</v>
+        <v>7.07</v>
       </c>
       <c r="D4" t="n">
         <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>16.87</v>
+        <v>3.53</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Derived from geometry difference (Slab - Wall Outline)</t>
+          <t>Derived from geometry difference (Slab - Wall Outline) minus overridden elements</t>
         </is>
       </c>
     </row>
@@ -894,47 +894,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BALCONY</t>
+          <t>EXTERIOR SLAB</t>
         </is>
       </c>
       <c r="C5" t="n">
+        <v>26.68</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Semantic Balcony Adjustment</t>
+          <t>Manual Factor Override (OUTSIDE)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GF</t>
+          <t>1F</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BALCONY</t>
+          <t>General Floor Area (Enclosed)</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>869.1799999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>869.1799999999999</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Semantic Balcony Adjustment</t>
+          <t>Remaining area after specific element adjustments</t>
         </is>
       </c>
     </row>
@@ -946,71 +946,45 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>General Floor Area (Enclosed)</t>
+          <t>Geometric Balcony/Outside</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>869.1799999999999</v>
+        <v>33.27</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="n">
-        <v>869.1799999999999</v>
+        <v>16.63</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Remaining area after specific element adjustments</t>
+          <t>Derived from geometry difference (Slab - Wall Outline) minus overridden elements</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1F</t>
+          <t>2F</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Geometric Balcony/Outside</t>
+          <t>General Floor Area (Enclosed)</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33.27</v>
+        <v>902.45</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>16.63</v>
+        <v>902.45</v>
       </c>
       <c r="F8" t="inlineStr">
-        <is>
-          <t>Derived from geometry difference (Slab - Wall Outline)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2F</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>General Floor Area (Enclosed)</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>902.45</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>902.45</v>
-      </c>
-      <c r="F9" t="inlineStr">
         <is>
           <t>Remaining area after specific element adjustments</t>
         </is>
